--- a/Numerical case.xlsx
+++ b/Numerical case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27249\Desktop\论文3\程序与数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27249\Desktop\论文3\程序与数据\算例测试订单70seru3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715B4C10-443B-47A2-B0F1-F60E0C1C837E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1D6970-57DB-4FC9-9FCE-628F3F58B43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,8 +78,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="184" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -117,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,8 +138,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -479,7 +488,8 @@
         <v>653</v>
       </c>
       <c r="G2" s="9">
-        <v>8.810381672699398E-2</v>
+        <f ca="1">F2/SUM($F$2:$F$71)</f>
+        <v>2.2995386836637672E-2</v>
       </c>
       <c r="J2" s="8"/>
     </row>
@@ -503,7 +513,8 @@
         <v>407</v>
       </c>
       <c r="G3" s="9">
-        <v>6.713721600690413E-2</v>
+        <f t="shared" ref="G3:G66" ca="1" si="0">F3/SUM($F$2:$F$71)</f>
+        <v>1.4332499911962532E-2</v>
       </c>
       <c r="J3" s="8"/>
     </row>
@@ -527,7 +538,8 @@
         <v>775</v>
       </c>
       <c r="G4" s="9">
-        <v>8.5979761282933082E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7291615311476565E-2</v>
       </c>
       <c r="J4" s="8"/>
     </row>
@@ -551,7 +563,8 @@
         <v>611</v>
       </c>
       <c r="G5" s="9">
-        <v>3.8104741285457468E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1516357361693137E-2</v>
       </c>
       <c r="J5" s="8"/>
     </row>
@@ -575,7 +588,8 @@
         <v>594</v>
       </c>
       <c r="G6" s="9">
-        <v>4.6823384948895944E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0917702574215585E-2</v>
       </c>
       <c r="J6" s="8"/>
     </row>
@@ -599,7 +613,8 @@
         <v>536</v>
       </c>
       <c r="G7" s="9">
-        <v>3.3180251758104587E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.887523329929218E-2</v>
       </c>
       <c r="J7" s="8"/>
     </row>
@@ -623,7 +638,8 @@
         <v>512</v>
       </c>
       <c r="G8" s="9">
-        <v>1.5557843337465151E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8030073599323872E-2</v>
       </c>
       <c r="J8" s="8"/>
     </row>
@@ -647,7 +663,8 @@
         <v>505</v>
       </c>
       <c r="G9" s="9">
-        <v>6.1802964587433298E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7783568686833118E-2</v>
       </c>
       <c r="J9" s="8"/>
     </row>
@@ -671,7 +688,8 @@
         <v>767</v>
       </c>
       <c r="G10" s="9">
-        <v>3.4518133466205442E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7009895411487128E-2</v>
       </c>
       <c r="J10" s="8"/>
     </row>
@@ -695,7 +713,8 @@
         <v>756</v>
       </c>
       <c r="G11" s="9">
-        <v>7.1713460752326916E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6622530549001655E-2</v>
       </c>
       <c r="J11" s="8"/>
     </row>
@@ -719,7 +738,8 @@
         <v>704</v>
       </c>
       <c r="G12" s="9">
-        <v>6.308077210847822E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4791351199070326E-2</v>
       </c>
       <c r="J12" s="8"/>
     </row>
@@ -743,7 +763,8 @@
         <v>471</v>
       </c>
       <c r="G13" s="9">
-        <v>1.333164503424277E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6586259111878016E-2</v>
       </c>
       <c r="J13" s="8"/>
     </row>
@@ -767,7 +788,8 @@
         <v>332</v>
       </c>
       <c r="G14" s="9">
-        <v>8.6106160954928138E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1691375849561574E-2</v>
       </c>
       <c r="J14" s="8"/>
     </row>
@@ -791,7 +813,8 @@
         <v>753</v>
       </c>
       <c r="G15" s="9">
-        <v>9.2080749416493177E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6516885586505615E-2</v>
       </c>
       <c r="J15" s="8"/>
     </row>
@@ -815,7 +838,8 @@
         <v>574</v>
       </c>
       <c r="G16" s="9">
-        <v>4.3932421419392104E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0213402824241996E-2</v>
       </c>
       <c r="J16" s="8"/>
     </row>
@@ -839,7 +863,8 @@
         <v>519</v>
       </c>
       <c r="G17" s="9">
-        <v>1.3769064142618612E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8276578511814627E-2</v>
       </c>
       <c r="J17" s="8"/>
     </row>
@@ -863,7 +888,8 @@
         <v>427</v>
       </c>
       <c r="G18" s="9">
-        <v>1.8641853456735687E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.503679966193612E-2</v>
       </c>
       <c r="J18" s="8"/>
     </row>
@@ -887,7 +913,8 @@
         <v>311</v>
       </c>
       <c r="G19" s="9">
-        <v>1.6924700838059513E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0951861112089305E-2</v>
       </c>
       <c r="J19" s="8"/>
     </row>
@@ -911,7 +938,8 @@
         <v>491</v>
       </c>
       <c r="G20" s="9">
-        <v>3.8025059087470531E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7290558861851605E-2</v>
       </c>
       <c r="J20" s="8"/>
     </row>
@@ -935,14 +963,1043 @@
         <v>395</v>
       </c>
       <c r="G21" s="9">
-        <v>8.6418230143114588E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3909920061978378E-2</v>
       </c>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <f ca="1">RANDBETWEEN(50,150)</f>
+        <v>82</v>
+      </c>
+      <c r="C22" s="1">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <f ca="1">RANDBETWEEN(100,700)</f>
+        <v>105</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.697573687361341E-3</v>
+      </c>
       <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <f t="shared" ref="B23:B70" ca="1" si="1">RANDBETWEEN(50,150)</f>
+        <v>76</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" ref="C23:C70" ca="1" si="2">RANDBETWEEN(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F70" ca="1" si="3">RANDBETWEEN(100,700)</f>
+        <v>300</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0564496249603832E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="3"/>
+        <v>464</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6339754199387258E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="3"/>
+        <v>362</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2747825474521957E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="3"/>
+        <v>392</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.380427509948234E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="3"/>
+        <v>235</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2755220621896688E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8104729372821075E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2889741874141636E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="3"/>
+        <v>295</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0388421312110435E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="3"/>
+        <v>611</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1516357361693137E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="C32" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="3"/>
+        <v>164</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7752579497834279E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="C33" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="3"/>
+        <v>549</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.933302813677501E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="C34" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="3"/>
+        <v>527</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8558298411804064E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="C35" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="3"/>
+        <v>261</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1911117371553334E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="C36" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="3"/>
+        <v>421</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4825509736944043E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C37" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="3"/>
+        <v>380</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3381695249498187E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="C38" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6835933373243653E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="C39" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="3"/>
+        <v>262</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.2263267246540121E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="C40" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2677395499524598E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="C41" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="3"/>
+        <v>542</v>
+      </c>
+      <c r="G41" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9086523224284255E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="C42" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="3"/>
+        <v>302</v>
+      </c>
+      <c r="G42" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0634926224601189E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C43" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="3"/>
+        <v>388</v>
+      </c>
+      <c r="G43" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3663415149487622E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C44" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9088636123534174E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="C45" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="3"/>
+        <v>266</v>
+      </c>
+      <c r="G45" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3671866746487305E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C46" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="3"/>
+        <v>427</v>
+      </c>
+      <c r="G46" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.503679966193612E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="C47" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="G47" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.1061731873085188E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="C48" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="3"/>
+        <v>293</v>
+      </c>
+      <c r="G48" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0317991337113076E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="C49" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="3"/>
+        <v>644</v>
+      </c>
+      <c r="G49" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2678451949149556E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C50" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="3"/>
+        <v>413</v>
+      </c>
+      <c r="G50" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4543789836954608E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C51" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="3"/>
+        <v>349</v>
+      </c>
+      <c r="G51" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2290030637039123E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C52" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="3"/>
+        <v>577</v>
+      </c>
+      <c r="G52" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0319047786738036E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="C53" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="G53" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6623586998626614E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="C54" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="3"/>
+        <v>333</v>
+      </c>
+      <c r="G54" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1726590837060253E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="C55" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="3"/>
+        <v>241</v>
+      </c>
+      <c r="G55" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4868119871817447E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C56" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="G56" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2403070746909883E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+      <c r="B57" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C57" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="G57" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.1061731873085188E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
+        <v>57</v>
+      </c>
+      <c r="B58" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="C58" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="3"/>
+        <v>292</v>
+      </c>
+      <c r="G58" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0282776349614395E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
+        <v>58</v>
+      </c>
+      <c r="B59" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C59" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="3"/>
+        <v>555</v>
+      </c>
+      <c r="G59" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9544318061767089E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>59</v>
+      </c>
+      <c r="B60" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="C60" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="G60" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6271437123639822E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>60</v>
+      </c>
+      <c r="B61" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="C61" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="G61" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3951473747226821E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
+        <v>61</v>
+      </c>
+      <c r="B62" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C62" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="3"/>
+        <v>658</v>
+      </c>
+      <c r="G62" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3171461774131069E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
+        <v>62</v>
+      </c>
+      <c r="B63" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="C63" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="G63" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9585871747015532E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="C64" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="3"/>
+        <v>561</v>
+      </c>
+      <c r="G64" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9755607986759165E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
+        <v>64</v>
+      </c>
+      <c r="B65" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="C65" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="3"/>
+        <v>629</v>
+      </c>
+      <c r="G65" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2150227136669365E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="10">
+        <v>65</v>
+      </c>
+      <c r="B66" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="C66" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="3"/>
+        <v>302</v>
+      </c>
+      <c r="G66" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0634926224601189E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="10">
+        <v>66</v>
+      </c>
+      <c r="B67" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="C67" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="G67" s="9">
+        <f t="shared" ref="G67:G70" ca="1" si="4">F67/SUM($F$2:$F$71)</f>
+        <v>5.2118181498045568E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="10">
+        <v>67</v>
+      </c>
+      <c r="B68" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="C68" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="3"/>
+        <v>368</v>
+      </c>
+      <c r="G68" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2959115399514033E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="10">
+        <v>68</v>
+      </c>
+      <c r="B69" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C69" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="3"/>
+        <v>421</v>
+      </c>
+      <c r="G69" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.4825509736944043E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>69</v>
+      </c>
+      <c r="B70" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="C70" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="3"/>
+        <v>681</v>
+      </c>
+      <c r="G70" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.3981406486600697E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G71" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1001,7 +2058,7 @@
       <c r="F2" s="5">
         <v>4.361711020516168</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1018,7 +2075,7 @@
       <c r="F3" s="5">
         <v>3.1787685077592016</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1035,7 +2092,7 @@
         <v>3.6060260469800696</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
